--- a/uft-one-tests/Group2/AdvantageOnlineLogin/Default.xlsx
+++ b/uft-one-tests/Group2/AdvantageOnlineLogin/Default.xlsx
@@ -543,16 +543,19 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="4" width="9.41796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.65625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.1953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.10546875" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" s="4" customFormat="1">
+    <row r="1" ht="14.95" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,12 +590,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
